--- a/TaxCalulator/TaxCalculator.xlsx
+++ b/TaxCalulator/TaxCalculator.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">Salary </t>
   </si>
   <si>
-    <t>Salary PM</t>
-  </si>
-  <si>
-    <t>Salary after TAX</t>
-  </si>
-  <si>
     <t>Total (A)</t>
   </si>
   <si>
     <t>Wenso Share (£) (B)</t>
   </si>
   <si>
-    <t>Wenso NI ©</t>
-  </si>
-  <si>
-    <t>Remaining (A-B)</t>
-  </si>
-  <si>
-    <t>Balance after Salary and NI (D)</t>
-  </si>
-  <si>
-    <t>Balance (D) after deduction (if any: E)</t>
-  </si>
-  <si>
-    <t>Accountant (TBD) (E )</t>
-  </si>
-  <si>
-    <t>Total Take Home (approx.)</t>
+    <t>Balance [C]</t>
+  </si>
+  <si>
+    <t>Salary PM [D]</t>
+  </si>
+  <si>
+    <t>Wenso NI [E]</t>
+  </si>
+  <si>
+    <t>Salary after TAX [F]</t>
+  </si>
+  <si>
+    <t>Accountant charge(TBD) (E )</t>
+  </si>
+  <si>
+    <t>Balance after Salary and NI [G] = (C-D-E)</t>
+  </si>
+  <si>
+    <t>Balance after deduction [H] = G-E</t>
+  </si>
+  <si>
+    <t>Total Take Home (approx.) (F+H)</t>
   </si>
 </sst>
 </file>
@@ -397,12 +397,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,7 +432,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f>B1*B2</f>
@@ -441,7 +441,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f>B1*B2*B3</f>
@@ -450,7 +450,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <f>B4-B5</f>
@@ -467,7 +467,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f>B7/12</f>
@@ -485,7 +485,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <f>B6-B8-B9</f>
@@ -494,7 +494,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2378.56</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <f>B10-(B10*B12)</f>

--- a/TaxCalulator/TaxCalculator.xlsx
+++ b/TaxCalulator/TaxCalculator.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Rate</t>
   </si>
@@ -38,41 +38,80 @@
     <t xml:space="preserve">Salary </t>
   </si>
   <si>
-    <t>Total (A)</t>
-  </si>
-  <si>
-    <t>Wenso Share (£) (B)</t>
-  </si>
-  <si>
-    <t>Balance [C]</t>
-  </si>
-  <si>
-    <t>Salary PM [D]</t>
-  </si>
-  <si>
-    <t>Wenso NI [E]</t>
-  </si>
-  <si>
-    <t>Salary after TAX [F]</t>
-  </si>
-  <si>
-    <t>Accountant charge(TBD) (E )</t>
-  </si>
-  <si>
-    <t>Balance after Salary and NI [G] = (C-D-E)</t>
-  </si>
-  <si>
-    <t>Balance after deduction [H] = G-E</t>
-  </si>
-  <si>
     <t>Total Take Home (approx.) (F+H)</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Salary PM</t>
+  </si>
+  <si>
+    <t>Wenso NI</t>
+  </si>
+  <si>
+    <t>Balance after Salary and NI (C-D-E)</t>
+  </si>
+  <si>
+    <t>Salary after TAX</t>
+  </si>
+  <si>
+    <t>Accountant charge(TBD)</t>
+  </si>
+  <si>
+    <t>Balance after deduction G-T</t>
+  </si>
+  <si>
+    <t>Wenso Share (£)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +127,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +171,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,136 +482,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C2*C3</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <f>C2*C3*C4</f>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C5-C6</f>
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C8/12</f>
+        <v>3083.3333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <f>C9*10.5/100</f>
+        <v>323.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C7-C9-C10</f>
+        <v>3562.9166666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2378.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C11-(C11*C13)</f>
+        <v>3562.9166666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>B1*B2</f>
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>B1*B2*B3</f>
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>B4-B5</f>
-        <v>5822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>B7/12</f>
-        <v>3083.3333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>B8*10.5/100</f>
-        <v>323.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <f>B6-B8-B9</f>
-        <v>2414.9166666666665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2378.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>B10-(B10*B12)</f>
-        <v>2414.9166666666665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <f>B13+B11</f>
-        <v>4793.4766666666665</v>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10">
+        <f>C14+C12</f>
+        <v>5941.4766666666665</v>
       </c>
     </row>
   </sheetData>
